--- a/TesteCNPJ/Lista CNPJ Exemplos.xlsx
+++ b/TesteCNPJ/Lista CNPJ Exemplos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\Java_T\TesteCNPJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EC4669-BEEB-40E3-B04C-C1B28F7AE47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E609B204-D392-4D14-A312-A0946854FA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EC9DE0F-035B-44DC-A85A-20DFC68F7D65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CNPJ</t>
   </si>
@@ -44,37 +44,19 @@
     <t>NOME</t>
   </si>
   <si>
-    <t>SITUAÇÃO</t>
-  </si>
-  <si>
-    <t>UNIMED CENTRO RONDONIA COOPERATIVA DE TRABALHO MEDICO</t>
-  </si>
-  <si>
     <t>00697509000135</t>
   </si>
   <si>
-    <t>ORGANIZACAO FOTOGRAFICA RODRIGO LTDA</t>
-  </si>
-  <si>
-    <t>ATIVA</t>
-  </si>
-  <si>
-    <t>BAIXADA</t>
-  </si>
-  <si>
     <t>04913323000208</t>
   </si>
   <si>
-    <t>BIGSAL INDUSTRIA E COMERCIO DE SUPLEMENTOS PARA NUTRICAO ANIMAL SA</t>
-  </si>
-  <si>
     <t>05647897000163</t>
   </si>
   <si>
-    <t>NBS SERVICOS DE COMUNICACOES LTDA</t>
-  </si>
-  <si>
     <t>26824572000189</t>
+  </si>
+  <si>
+    <t>SITUACAO</t>
   </si>
 </sst>
 </file>
@@ -450,7 +432,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,51 +450,27 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
